--- a/biology/Médecine/1106_en_santé_et_médecine/1106_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1106_en_santé_et_médecine/1106_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1106_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1106_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1106 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1106_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1106_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Malgré les interdits, des dissections sont pratiquées sur les cadavres de brigands capturés à Suzhou, en Chine[1].
-Gravement blessé, le roi de Jérusalem Baudouin Ier défend à ses médecins d'étudier son cas sur le cadavre d'un prisonnier, mais il le leur permet sur un ours[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Malgré les interdits, des dissections sont pratiquées sur les cadavres de brigands capturés à Suzhou, en Chine.
+Gravement blessé, le roi de Jérusalem Baudouin Ier défend à ses médecins d'étudier son cas sur le cadavre d'un prisonnier, mais il le leur permet sur un ours.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1106_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1106_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À Saint-Omer, un certain Winrad fonde sur le chemin d'Arques, au lieu-dit la Madeleine, une maison hospitalière pour les lépreux[3],[4].
-Fondation du prieuré augustinien de St. Mary Overie qui est à l'origine du « plus grand hôpital d'Angleterre », le St. Thomas' Hospital de Londres, à Southwark[5].
-Dans le testament de Loup-Eneco, vicomte de Baïgorry, première mention d'un hôpital de pèlerins ultérieurement dépendant du prieuré Saint-Nicolas d'Harambeltz, à Ostabat, en Basse-Navarre[6].
-Une léproserie (« domus Lazarorum ») est mentionnée à Pont-Audemer, en Normandie, à l'endroit où sera fondé le prieuré Saint-Gilles en 1135[7].
-Fondation à Arras, en Flandre, de la confrérie de Notre-Dame-des-Ardents, inspirée à l'évêque Lambert par le miracle du Saint-Cierge, survenu l'année 1105 précédente pendant une épidémie d'ergotisme[9].
-Vers 1106 : construction d'un hospice de pèlerins à Mezzaratte, près de Bologne[10].
-Entre 1106 et 1135 : fondation de la léproserie du Mont-des-Malades, au nord-ouest de Rouen en Normandie, placée sous la protection de la famille royale anglo-normande puis, à partir de 1204, sous celle des rois de France[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À Saint-Omer, un certain Winrad fonde sur le chemin d'Arques, au lieu-dit la Madeleine, une maison hospitalière pour les lépreux,.
+Fondation du prieuré augustinien de St. Mary Overie qui est à l'origine du « plus grand hôpital d'Angleterre », le St. Thomas' Hospital de Londres, à Southwark.
+Dans le testament de Loup-Eneco, vicomte de Baïgorry, première mention d'un hôpital de pèlerins ultérieurement dépendant du prieuré Saint-Nicolas d'Harambeltz, à Ostabat, en Basse-Navarre.
+Une léproserie (« domus Lazarorum ») est mentionnée à Pont-Audemer, en Normandie, à l'endroit où sera fondé le prieuré Saint-Gilles en 1135.
+Fondation à Arras, en Flandre, de la confrérie de Notre-Dame-des-Ardents, inspirée à l'évêque Lambert par le miracle du Saint-Cierge, survenu l'année 1105 précédente pendant une épidémie d'ergotisme.
+Vers 1106 : construction d'un hospice de pèlerins à Mezzaratte, près de Bologne.
+Entre 1106 et 1135 : fondation de la léproserie du Mont-des-Malades, au nord-ouest de Rouen en Normandie, placée sous la protection de la famille royale anglo-normande puis, à partir de 1204, sous celle des rois de France.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1106_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1106_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1106 : Ibn Biklârish rédige son Kitāb al-Mustaʿīnī, traité sur les médicaments simples dédié à al-Musta'in II, roi de la taïfa de Saragosse[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1106 : Ibn Biklârish rédige son Kitāb al-Mustaʿīnī, traité sur les médicaments simples dédié à al-Musta'in II, roi de la taïfa de Saragosse.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1106_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1106_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1082-1106 : fl. Jean, médecin de l'abbaye de Saint-Aubin d'Angers[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1082-1106 : fl. Jean, médecin de l'abbaye de Saint-Aubin d'Angers.</t>
         </is>
       </c>
     </row>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1106_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1106_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Guo Yong (mort en 1187), médecin chinois, auteur du Shanghan buwang lun  (1181), ouvrage consacré aux « dommages causés par le froid[14] ».</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Guo Yong (mort en 1187), médecin chinois, auteur du Shanghan buwang lun  (1181), ouvrage consacré aux « dommages causés par le froid ».</t>
         </is>
       </c>
     </row>
